--- a/secure/26P-Noa.xlsx
+++ b/secure/26P-Noa.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Noa-474363</t>
+    <t>26P-Noa-1012553</t>
   </si>
   <si>
-    <t>26P-Noa-874789</t>
+    <t>26P-Noa-957994</t>
   </si>
   <si>
-    <t>26P-Noa-608736</t>
+    <t>26P-Noa-145471</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fa907595"/>
+        <fgColor rgb="F71ff494"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XQ503"/>
+  <dimension ref="A1:XU503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1879,14 +1879,11 @@
       </c>
       <c r="M238" s="4"/>
     </row>
-    <row r="239" spans="1:483" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>-0.052</v>
       </c>
       <c r="M239" s="4"/>
-      <c r="RO239" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
@@ -2338,20 +2335,20 @@
       </c>
       <c r="M314" s="4"/>
     </row>
-    <row r="315" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>0.252</v>
       </c>
       <c r="M315" s="4"/>
-      <c r="OK315" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:645" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>0.256</v>
       </c>
       <c r="M316" s="4"/>
+      <c r="XU316" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
@@ -2443,11 +2440,14 @@
       </c>
       <c r="M331" s="4"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:470" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>0.32</v>
       </c>
       <c r="M332" s="4"/>
+      <c r="RB332" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
@@ -2461,14 +2461,11 @@
       </c>
       <c r="M334" s="4"/>
     </row>
-    <row r="335" spans="1:641" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>0.332</v>
       </c>
       <c r="M335" s="4"/>
-      <c r="XQ335" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
@@ -3358,11 +3355,14 @@
       </c>
       <c r="M483" s="4"/>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>0.928</v>
       </c>
       <c r="M484" s="4"/>
+      <c r="QA484" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
